--- a/kaggle/데이터 분석 노트_santander_product_recommendation.xlsx
+++ b/kaggle/데이터 분석 노트_santander_product_recommendation.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$J$50</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="224">
   <si>
     <t>변수명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -899,6 +899,10 @@
   <si>
     <t>float64
 int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,7 +962,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1057,21 +1061,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1124,7 +1113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1165,15 +1154,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1185,7 +1171,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,1213 +1463,1362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="16.69921875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.69921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.796875" style="2" customWidth="1"/>
-    <col min="6" max="9" width="16.69921875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16.69921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.796875" style="2" customWidth="1"/>
+    <col min="7" max="10" width="16.69921875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F4" s="11"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" ht="144" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" ht="144" x14ac:dyDescent="0.4">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.4">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.4">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.4">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="17" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="16" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="I12" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="J12" s="16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="86.4" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:10" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="129.6" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="129.6" x14ac:dyDescent="0.4">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="I14" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" ht="100.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="I15" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" ht="86.4" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" ht="72" x14ac:dyDescent="0.4">
-      <c r="A18" s="9" t="s">
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.4">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.4">
-      <c r="A19" s="9" t="s">
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" ht="72" x14ac:dyDescent="0.4">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I19" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" ht="72" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="72" x14ac:dyDescent="0.4">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="I20" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.4">
-      <c r="A21" s="9" t="s">
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="J21" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="57.6" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="I22" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.4">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:10" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="9">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="F23" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="I23" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.4">
-      <c r="A24" s="9" t="s">
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A24" s="9">
+        <v>21</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="11"/>
+      <c r="I24" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="J24" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="72" x14ac:dyDescent="0.4">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:10" ht="72" x14ac:dyDescent="0.4">
+      <c r="A25" s="9">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="J25" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="72" x14ac:dyDescent="0.4">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:10" ht="72" x14ac:dyDescent="0.4">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="G26" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="I26" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="9" t="s">
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="9" t="s">
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="9" t="s">
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="9" t="s">
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="9" t="s">
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="E31" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="9" t="s">
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.4">
-      <c r="A33" s="9" t="s">
+      <c r="I32" s="11"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="E33" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="9" t="s">
+      <c r="I33" s="11"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="E34" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.4">
-      <c r="A35" s="9" t="s">
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G35" s="11"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.4">
-      <c r="A36" s="9" t="s">
+      <c r="I35" s="11"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G36" s="11"/>
       <c r="H36" s="11"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.4">
-      <c r="A37" s="9" t="s">
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="E37" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.4">
-      <c r="A38" s="9" t="s">
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="9" t="s">
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="E39" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="9" t="s">
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="D40" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G40" s="11"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="9" t="s">
+      <c r="I40" s="11"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="D41" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="E41" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G41" s="11"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="9" t="s">
+      <c r="I41" s="11"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="E42" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="11"/>
+      <c r="G42" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G42" s="11"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="9" t="s">
+      <c r="I42" s="11"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="D43" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="E43" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G43" s="11"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="9" t="s">
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="9">
+        <v>41</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="E44" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G44" s="11"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="9" t="s">
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="9">
+        <v>42</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="D45" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="E45" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G45" s="11"/>
       <c r="H45" s="11"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="9" t="s">
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="9">
+        <v>43</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="E46" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="11"/>
+      <c r="G46" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G46" s="11"/>
       <c r="H46" s="11"/>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="9" t="s">
+      <c r="I46" s="11"/>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="9">
+        <v>44</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="D47" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="E47" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="11"/>
+      <c r="G47" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G47" s="11"/>
       <c r="H47" s="11"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="9" t="s">
+      <c r="I47" s="11"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="9">
+        <v>45</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="E48" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G48" s="11"/>
       <c r="H48" s="11"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="9" t="s">
+      <c r="I48" s="11"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="9">
+        <v>46</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="E49" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="11"/>
+      <c r="G49" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G49" s="11"/>
       <c r="H49" s="11"/>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="13" t="s">
+      <c r="I49" s="11"/>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="9">
+        <v>47</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="C50" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="D50" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="E50" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="14"/>
+      <c r="G50" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="16"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I50"/>
+  <autoFilter ref="B2:J50"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
